--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.4865626364465</v>
+        <v>22.02847633333333</v>
       </c>
       <c r="H2">
-        <v>19.4865626364465</v>
+        <v>66.085429</v>
       </c>
       <c r="I2">
-        <v>0.3197771017965734</v>
+        <v>0.3378777065804683</v>
       </c>
       <c r="J2">
-        <v>0.3197771017965734</v>
+        <v>0.3378777065804683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.0106186574912</v>
+        <v>0.6732596666666667</v>
       </c>
       <c r="N2">
-        <v>8.0106186574912</v>
+        <v>2.019779</v>
       </c>
       <c r="O2">
-        <v>0.6346973786904389</v>
+        <v>0.05029912702290298</v>
       </c>
       <c r="P2">
-        <v>0.6346973786904389</v>
+        <v>0.05029912702290298</v>
       </c>
       <c r="Q2">
-        <v>156.0994222258892</v>
+        <v>14.83088463335456</v>
       </c>
       <c r="R2">
-        <v>156.0994222258892</v>
+        <v>133.477961700191</v>
       </c>
       <c r="S2">
-        <v>0.2029616882755108</v>
+        <v>0.01699495368149812</v>
       </c>
       <c r="T2">
-        <v>0.2029616882755108</v>
+        <v>0.01699495368149812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4865626364465</v>
+        <v>22.02847633333333</v>
       </c>
       <c r="H3">
-        <v>19.4865626364465</v>
+        <v>66.085429</v>
       </c>
       <c r="I3">
-        <v>0.3197771017965734</v>
+        <v>0.3378777065804683</v>
       </c>
       <c r="J3">
-        <v>0.3197771017965734</v>
+        <v>0.3378777065804683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.61054368923124</v>
+        <v>8.022254333333334</v>
       </c>
       <c r="N3">
-        <v>4.61054368923124</v>
+        <v>24.066763</v>
       </c>
       <c r="O3">
-        <v>0.3653026213095612</v>
+        <v>0.5993413978297139</v>
       </c>
       <c r="P3">
-        <v>0.3653026213095612</v>
+        <v>0.5993413978297139</v>
       </c>
       <c r="Q3">
-        <v>89.84364838827769</v>
+        <v>176.7180397218141</v>
       </c>
       <c r="R3">
-        <v>89.84364838827769</v>
+        <v>1590.462357496327</v>
       </c>
       <c r="S3">
-        <v>0.1168154135210626</v>
+        <v>0.2025040969574358</v>
       </c>
       <c r="T3">
-        <v>0.1168154135210626</v>
+        <v>0.2025040969574358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.0988192181748</v>
+        <v>22.02847633333333</v>
       </c>
       <c r="H4">
-        <v>16.0988192181748</v>
+        <v>66.085429</v>
       </c>
       <c r="I4">
-        <v>0.264183778739219</v>
+        <v>0.3378777065804683</v>
       </c>
       <c r="J4">
-        <v>0.264183778739219</v>
+        <v>0.3378777065804683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.0106186574912</v>
+        <v>4.689602333333333</v>
       </c>
       <c r="N4">
-        <v>8.0106186574912</v>
+        <v>14.068807</v>
       </c>
       <c r="O4">
-        <v>0.6346973786904389</v>
+        <v>0.3503594751473832</v>
       </c>
       <c r="P4">
-        <v>0.6346973786904389</v>
+        <v>0.3503594751473832</v>
       </c>
       <c r="Q4">
-        <v>128.961501592689</v>
+        <v>103.3047940125781</v>
       </c>
       <c r="R4">
-        <v>128.961501592689</v>
+        <v>929.743146113203</v>
       </c>
       <c r="S4">
-        <v>0.1676767518583172</v>
+        <v>0.1183786559415344</v>
       </c>
       <c r="T4">
-        <v>0.1676767518583172</v>
+        <v>0.1183786559415344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.0988192181748</v>
+        <v>16.174732</v>
       </c>
       <c r="H5">
-        <v>16.0988192181748</v>
+        <v>48.524196</v>
       </c>
       <c r="I5">
-        <v>0.264183778739219</v>
+        <v>0.2480916641721602</v>
       </c>
       <c r="J5">
-        <v>0.264183778739219</v>
+        <v>0.2480916641721602</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.61054368923124</v>
+        <v>0.6732596666666667</v>
       </c>
       <c r="N5">
-        <v>4.61054368923124</v>
+        <v>2.019779</v>
       </c>
       <c r="O5">
-        <v>0.3653026213095612</v>
+        <v>0.05029912702290298</v>
       </c>
       <c r="P5">
-        <v>0.3653026213095612</v>
+        <v>0.05029912702290298</v>
       </c>
       <c r="Q5">
-        <v>74.22430935043043</v>
+        <v>10.88979467474267</v>
       </c>
       <c r="R5">
-        <v>74.22430935043043</v>
+        <v>98.00815207268401</v>
       </c>
       <c r="S5">
-        <v>0.09650702688090182</v>
+        <v>0.01247879412951887</v>
       </c>
       <c r="T5">
-        <v>0.09650702688090182</v>
+        <v>0.01247879412951887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.3125126868792</v>
+        <v>16.174732</v>
       </c>
       <c r="H6">
-        <v>15.3125126868792</v>
+        <v>48.524196</v>
       </c>
       <c r="I6">
-        <v>0.2512803832870555</v>
+        <v>0.2480916641721602</v>
       </c>
       <c r="J6">
-        <v>0.2512803832870555</v>
+        <v>0.2480916641721602</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.0106186574912</v>
+        <v>8.022254333333334</v>
       </c>
       <c r="N6">
-        <v>8.0106186574912</v>
+        <v>24.066763</v>
       </c>
       <c r="O6">
-        <v>0.6346973786904389</v>
+        <v>0.5993413978297139</v>
       </c>
       <c r="P6">
-        <v>0.6346973786904389</v>
+        <v>0.5993413978297139</v>
       </c>
       <c r="Q6">
-        <v>122.6626998225852</v>
+        <v>129.7578138775054</v>
       </c>
       <c r="R6">
-        <v>122.6626998225852</v>
+        <v>1167.820324897548</v>
       </c>
       <c r="S6">
-        <v>0.1594870005886229</v>
+        <v>0.1486916047948424</v>
       </c>
       <c r="T6">
-        <v>0.1594870005886229</v>
+        <v>0.1486916047948424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3125126868792</v>
+        <v>16.174732</v>
       </c>
       <c r="H7">
-        <v>15.3125126868792</v>
+        <v>48.524196</v>
       </c>
       <c r="I7">
-        <v>0.2512803832870555</v>
+        <v>0.2480916641721602</v>
       </c>
       <c r="J7">
-        <v>0.2512803832870555</v>
+        <v>0.2480916641721602</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.61054368923124</v>
+        <v>4.689602333333333</v>
       </c>
       <c r="N7">
-        <v>4.61054368923124</v>
+        <v>14.068807</v>
       </c>
       <c r="O7">
-        <v>0.3653026213095612</v>
+        <v>0.3503594751473832</v>
       </c>
       <c r="P7">
-        <v>0.3653026213095612</v>
+        <v>0.3503594751473832</v>
       </c>
       <c r="Q7">
-        <v>70.5990087347642</v>
+        <v>75.85306092824135</v>
       </c>
       <c r="R7">
-        <v>70.5990087347642</v>
+        <v>682.677548354172</v>
       </c>
       <c r="S7">
-        <v>0.09179338269843262</v>
+        <v>0.08692126524779889</v>
       </c>
       <c r="T7">
-        <v>0.09179338269843262</v>
+        <v>0.08692126524779889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.0400604495448</v>
+        <v>16.59113633333333</v>
       </c>
       <c r="H8">
-        <v>10.0400604495448</v>
+        <v>49.773409</v>
       </c>
       <c r="I8">
-        <v>0.1647587361771521</v>
+        <v>0.254478567153005</v>
       </c>
       <c r="J8">
-        <v>0.1647587361771521</v>
+        <v>0.2544785671530049</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>8.0106186574912</v>
+        <v>0.6732596666666667</v>
       </c>
       <c r="N8">
-        <v>8.0106186574912</v>
+        <v>2.019779</v>
       </c>
       <c r="O8">
-        <v>0.6346973786904389</v>
+        <v>0.05029912702290298</v>
       </c>
       <c r="P8">
-        <v>0.6346973786904389</v>
+        <v>0.05029912702290298</v>
       </c>
       <c r="Q8">
-        <v>80.42709555946305</v>
+        <v>11.17014291740122</v>
       </c>
       <c r="R8">
-        <v>80.42709555946305</v>
+        <v>100.531286256611</v>
       </c>
       <c r="S8">
-        <v>0.104571937967988</v>
+        <v>0.01280004977383534</v>
       </c>
       <c r="T8">
-        <v>0.104571937967988</v>
+        <v>0.01280004977383534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.59113633333333</v>
+      </c>
+      <c r="H9">
+        <v>49.773409</v>
+      </c>
+      <c r="I9">
+        <v>0.254478567153005</v>
+      </c>
+      <c r="J9">
+        <v>0.2544785671530049</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.022254333333334</v>
+      </c>
+      <c r="N9">
+        <v>24.066763</v>
+      </c>
+      <c r="O9">
+        <v>0.5993413978297139</v>
+      </c>
+      <c r="P9">
+        <v>0.5993413978297139</v>
+      </c>
+      <c r="Q9">
+        <v>133.0983153450075</v>
+      </c>
+      <c r="R9">
+        <v>1197.884838105067</v>
+      </c>
+      <c r="S9">
+        <v>0.1525195401551847</v>
+      </c>
+      <c r="T9">
+        <v>0.1525195401551847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.0400604495448</v>
-      </c>
-      <c r="H9">
-        <v>10.0400604495448</v>
-      </c>
-      <c r="I9">
-        <v>0.1647587361771521</v>
-      </c>
-      <c r="J9">
-        <v>0.1647587361771521</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.61054368923124</v>
-      </c>
-      <c r="N9">
-        <v>4.61054368923124</v>
-      </c>
-      <c r="O9">
-        <v>0.3653026213095612</v>
-      </c>
-      <c r="P9">
-        <v>0.3653026213095612</v>
-      </c>
-      <c r="Q9">
-        <v>46.29013734514894</v>
-      </c>
-      <c r="R9">
-        <v>46.29013734514894</v>
-      </c>
-      <c r="S9">
-        <v>0.06018679820916408</v>
-      </c>
-      <c r="T9">
-        <v>0.06018679820916408</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.59113633333333</v>
+      </c>
+      <c r="H10">
+        <v>49.773409</v>
+      </c>
+      <c r="I10">
+        <v>0.254478567153005</v>
+      </c>
+      <c r="J10">
+        <v>0.2544785671530049</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.689602333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.068807</v>
+      </c>
+      <c r="O10">
+        <v>0.3503594751473832</v>
+      </c>
+      <c r="P10">
+        <v>0.3503594751473832</v>
+      </c>
+      <c r="Q10">
+        <v>77.80583166145145</v>
+      </c>
+      <c r="R10">
+        <v>700.252484953063</v>
+      </c>
+      <c r="S10">
+        <v>0.08915897722398494</v>
+      </c>
+      <c r="T10">
+        <v>0.08915897722398491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.40225133333333</v>
+      </c>
+      <c r="H11">
+        <v>31.206754</v>
+      </c>
+      <c r="I11">
+        <v>0.1595520620943666</v>
+      </c>
+      <c r="J11">
+        <v>0.1595520620943666</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6732596666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.019779</v>
+      </c>
+      <c r="O11">
+        <v>0.05029912702290298</v>
+      </c>
+      <c r="P11">
+        <v>0.05029912702290298</v>
+      </c>
+      <c r="Q11">
+        <v>7.003416265262889</v>
+      </c>
+      <c r="R11">
+        <v>63.030746387366</v>
+      </c>
+      <c r="S11">
+        <v>0.008025329438050649</v>
+      </c>
+      <c r="T11">
+        <v>0.008025329438050649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.40225133333333</v>
+      </c>
+      <c r="H12">
+        <v>31.206754</v>
+      </c>
+      <c r="I12">
+        <v>0.1595520620943666</v>
+      </c>
+      <c r="J12">
+        <v>0.1595520620943666</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.022254333333334</v>
+      </c>
+      <c r="N12">
+        <v>24.066763</v>
+      </c>
+      <c r="O12">
+        <v>0.5993413978297139</v>
+      </c>
+      <c r="P12">
+        <v>0.5993413978297139</v>
+      </c>
+      <c r="Q12">
+        <v>83.44950583525578</v>
+      </c>
+      <c r="R12">
+        <v>751.045552517302</v>
+      </c>
+      <c r="S12">
+        <v>0.09562615592225097</v>
+      </c>
+      <c r="T12">
+        <v>0.09562615592225097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.40225133333333</v>
+      </c>
+      <c r="H13">
+        <v>31.206754</v>
+      </c>
+      <c r="I13">
+        <v>0.1595520620943666</v>
+      </c>
+      <c r="J13">
+        <v>0.1595520620943666</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.689602333333333</v>
+      </c>
+      <c r="N13">
+        <v>14.068807</v>
+      </c>
+      <c r="O13">
+        <v>0.3503594751473832</v>
+      </c>
+      <c r="P13">
+        <v>0.3503594751473832</v>
+      </c>
+      <c r="Q13">
+        <v>48.78242212471977</v>
+      </c>
+      <c r="R13">
+        <v>439.0417991224779</v>
+      </c>
+      <c r="S13">
+        <v>0.05590057673406497</v>
+      </c>
+      <c r="T13">
+        <v>0.05590057673406497</v>
       </c>
     </row>
   </sheetData>
